--- a/NibulonTest/Task.xlsx
+++ b/NibulonTest/Task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\NibulonTest\NibulonTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F379331-EF6D-4949-B356-3C3AA2C4AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5CF00-C67C-4109-B037-649043584B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="5400" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{AFEC37F7-DBE3-47A2-84D1-D21B53966972}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{AFEC37F7-DBE3-47A2-84D1-D21B53966972}"/>
   </bookViews>
   <sheets>
     <sheet name="Завдання" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Таблиця_2" sheetId="2" r:id="rId3"/>
     <sheet name="Таблиця_3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -50,7 +50,7 @@
       </rPr>
       <t>Таблиця_1</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -62,10 +62,10 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">За вказану користувачем дату (або період) дані групуються та завантажуються в </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -76,7 +76,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -91,7 +91,7 @@
     <t>(в прикладі - дані за 30.05.23 згруповані по виділеним стовпцям )</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -102,7 +102,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -114,10 +114,10 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">За ту ж дату / період в </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -128,7 +128,7 @@
       </rPr>
       <t>Таблиця_3</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -143,10 +143,10 @@
     <t>Значення показників якості повинні розрахуватись як середньозважені.</t>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">В будь який момент користувач може внести коригування в вихідну </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -157,7 +157,7 @@
       </rPr>
       <t xml:space="preserve">Таблиця_1  </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -169,10 +169,10 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">Потрібно при кожному коригуванні автоматично оновлювати дані в </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -183,7 +183,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -193,7 +193,7 @@
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -206,10 +206,10 @@
     </r>
   </si>
   <si>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <t xml:space="preserve">В </t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -220,7 +220,7 @@
       </rPr>
       <t>Таблиця_3</t>
     </r>
-    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -238,14 +238,14 @@
     <t>Зауважень до дизайну не має.</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер 
+    <t>Номер 
 запису</t>
   </si>
   <si>
     <t>Дата обліку</t>
   </si>
   <si>
-    <t xml:space="preserve">Підрозділ 
+    <t>Підрозділ 
 Код</t>
   </si>
   <si>
@@ -261,14 +261,14 @@
     <t>Унікальний номер договору</t>
   </si>
   <si>
-    <t xml:space="preserve">ТМЦ 
+    <t>ТМЦ 
 Код</t>
   </si>
   <si>
     <t>Ціна</t>
   </si>
   <si>
-    <t xml:space="preserve">Кількість 
+    <t>Кількість 
 нетто</t>
   </si>
   <si>
@@ -293,6 +293,9 @@
     <t>ПРИХІД</t>
   </si>
   <si>
+    <t>1.00 ст</t>
+  </si>
+  <si>
     <t>1 ст</t>
   </si>
   <si>
@@ -314,35 +317,7 @@
     <t>переміщення</t>
   </si>
   <si>
-    <t>0.5 ст</t>
-  </si>
-  <si>
-    <t>н/обн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер 
-партії</t>
-  </si>
-  <si>
-    <t>Лог змін</t>
-  </si>
-  <si>
     <t>середньозважені показники</t>
-  </si>
-  <si>
-    <t>CO2022000064060</t>
-  </si>
-  <si>
-    <t>CO2022000064063</t>
-  </si>
-  <si>
-    <t>CO2022000064068</t>
-  </si>
-  <si>
-    <t>CO2022000064069</t>
-  </si>
-  <si>
-    <t>CO2022000064078</t>
   </si>
 </sst>
 </file>
@@ -353,7 +328,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,99 +490,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,82 +898,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="27"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="28" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1015,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CBB014-EAD9-4907-9F16-4AFD173E16EB}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +999,7 @@
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5">
+    <row r="1" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>12345</v>
       </c>
@@ -1086,7 +1051,7 @@
         <v>45076</v>
       </c>
       <c r="C2" s="7">
-        <v>742</v>
+        <v>1400</v>
       </c>
       <c r="D2" s="7">
         <v>2021</v>
@@ -1122,7 +1087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>12346</v>
@@ -1131,7 +1096,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="7">
-        <v>742</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="7">
         <v>2021</v>
@@ -1164,12 +1129,12 @@
         <v>1.6</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f ref="A4:A17" t="shared" si="0">A3+1</f>
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>12347</v>
       </c>
       <c r="B4" s="12">
@@ -1185,13 +1150,13 @@
         <v>159</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10">
         <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5">
         <v>7500</v>
@@ -1209,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>12348</v>
@@ -1254,10 +1219,10 @@
         <v>1.5</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>12349</v>
@@ -1299,10 +1264,10 @@
         <v>1.5</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>12350</v>
@@ -1320,13 +1285,13 @@
         <v>159</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5">
         <v>7000</v>
@@ -1342,10 +1307,10 @@
         <v>1.2</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>12351</v>
@@ -1378,13 +1343,13 @@
         <v>40</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>12352</v>
@@ -1402,13 +1367,13 @@
         <v>159</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5">
         <v>7500</v>
@@ -1426,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>12353</v>
@@ -1471,10 +1436,10 @@
         <v>1.8</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>12354</v>
@@ -1492,13 +1457,13 @@
         <v>159</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" s="10">
         <v>2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="5">
         <v>7000</v>
@@ -1516,10 +1481,10 @@
         <v>2.1</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>12355</v>
@@ -1552,13 +1517,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12356</v>
@@ -1576,13 +1541,13 @@
         <v>159</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5">
         <v>7000</v>
@@ -1591,13 +1556,13 @@
         <v>50</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12357</v>
@@ -1639,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>12358</v>
@@ -1660,13 +1625,13 @@
         <v>159</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="10">
         <v>2</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="5">
         <v>7000</v>
@@ -1681,13 +1646,13 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="10">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>12359</v>
@@ -1720,13 +1685,13 @@
         <v>40</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>12360</v>
@@ -1744,13 +1709,13 @@
         <v>159</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="10">
         <v>2</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="5">
         <v>7000</v>
@@ -1759,7 +1724,7 @@
         <v>50</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1768,23 +1733,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129BE952-196E-41CB-A5C7-C10434A704F6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" style="32"/>
+    <col min="1" max="1" width="19.140625" style="26" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -1795,8 +1759,8 @@
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1830,185 +1794,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="32">
-        <v>45076</v>
-      </c>
-      <c r="B2" s="0">
-        <v>159</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="0">
-        <v>8000</v>
-      </c>
-      <c r="G2" s="0">
-        <v>275</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="0">
-        <v>14.6</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1.55</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="32">
-        <v>45076</v>
-      </c>
-      <c r="B3" s="0">
-        <v>159</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="0">
-        <v>7500</v>
-      </c>
-      <c r="G3" s="0">
-        <v>70</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="0">
-        <v>14.5</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="32">
-        <v>45076</v>
-      </c>
-      <c r="B4" s="0">
-        <v>159</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="0">
-        <v>7000</v>
-      </c>
-      <c r="G4" s="0">
-        <v>75</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="0">
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="32">
-        <v>45076</v>
-      </c>
-      <c r="B5" s="0">
-        <v>159</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="0">
-        <v>8000</v>
-      </c>
-      <c r="G5" s="0">
-        <v>40</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="32">
-        <v>45076</v>
-      </c>
-      <c r="B6" s="0">
-        <v>159</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="0">
-        <v>8000</v>
-      </c>
-      <c r="G6" s="0">
-        <v>40</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFFBCD2-FF9D-48F8-AB56-2E046E4A699A}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -2017,271 +1820,60 @@
     <col min="11" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
+    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="6">
-        <v>45076</v>
-      </c>
-      <c r="C3" s="7">
-        <v>742</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <v>159</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8000</v>
-      </c>
-      <c r="J3" s="9">
-        <v>275</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="8">
-        <v>14.62</v>
-      </c>
-      <c r="M3" s="8">
-        <v>1.55</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="12">
-        <v>45076</v>
-      </c>
-      <c r="C4" s="13">
-        <v>742</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
-        <v>159</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="15">
-        <v>70</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5">
-        <v>14.5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="12">
-        <v>45076</v>
-      </c>
-      <c r="C5" s="13">
-        <v>742</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14">
-        <v>159</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5">
-        <v>7000</v>
-      </c>
-      <c r="J5" s="15">
-        <v>75</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="17">
-        <v>14</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="12">
-        <v>45076</v>
-      </c>
-      <c r="C6" s="16">
-        <v>742</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14">
-        <v>159</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="17">
-        <v>8000</v>
-      </c>
-      <c r="J6" s="18">
-        <v>40</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="12">
-        <v>45077</v>
-      </c>
-      <c r="C7" s="13">
-        <v>742</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
-        <v>159</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5">
-        <v>7000</v>
-      </c>
-      <c r="J7" s="15">
-        <v>50</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="21"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="L2:N2"/>
+  <mergeCells count="1">
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/NibulonTest/Task.xlsx
+++ b/NibulonTest/Task.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Таблиця_2" sheetId="2" r:id="rId3"/>
     <sheet name="Таблиця_3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -50,7 +50,7 @@
       </rPr>
       <t>Таблиця_1</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -62,10 +62,10 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">За вказану користувачем дату (або період) дані групуються та завантажуються в </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -76,7 +76,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -91,7 +91,7 @@
     <t>(в прикладі - дані за 30.05.23 згруповані по виділеним стовпцям )</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -102,7 +102,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -114,10 +114,10 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">За ту ж дату / період в </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -128,7 +128,7 @@
       </rPr>
       <t>Таблиця_3</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -143,10 +143,10 @@
     <t>Значення показників якості повинні розрахуватись як середньозважені.</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">В будь який момент користувач може внести коригування в вихідну </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -157,7 +157,7 @@
       </rPr>
       <t xml:space="preserve">Таблиця_1  </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -169,10 +169,10 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">Потрібно при кожному коригуванні автоматично оновлювати дані в </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -183,7 +183,7 @@
       </rPr>
       <t>Таблиця_2</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -193,7 +193,7 @@
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -206,10 +206,10 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <t xml:space="preserve">В </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="11"/>
@@ -220,7 +220,7 @@
       </rPr>
       <t>Таблиця_3</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -238,14 +238,14 @@
     <t>Зауважень до дизайну не має.</t>
   </si>
   <si>
-    <t>Номер 
+    <t xml:space="preserve">Номер 
 запису</t>
   </si>
   <si>
     <t>Дата обліку</t>
   </si>
   <si>
-    <t>Підрозділ 
+    <t xml:space="preserve">Підрозділ 
 Код</t>
   </si>
   <si>
@@ -261,14 +261,14 @@
     <t>Унікальний номер договору</t>
   </si>
   <si>
-    <t>ТМЦ 
+    <t xml:space="preserve">ТМЦ 
 Код</t>
   </si>
   <si>
     <t>Ціна</t>
   </si>
   <si>
-    <t>Кількість 
+    <t xml:space="preserve">Кількість 
 нетто</t>
   </si>
   <si>
@@ -328,7 +328,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,88 +492,88 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -898,74 +898,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="24"/>
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="24"/>
       <c r="B4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="24"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="24"/>
       <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="24"/>
       <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="24"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
@@ -973,6 +973,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -999,7 +1000,7 @@
     <col min="14" max="14" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="5">
         <v>12345</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>12346</v>
@@ -1132,9 +1133,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A17" si="0">A3+1</f>
+        <f ref="A4:A17" t="shared" si="0">A3+1</f>
         <v>12347</v>
       </c>
       <c r="B4" s="12">
@@ -1177,7 +1178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>12348</v>
@@ -1222,7 +1223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>12349</v>
@@ -1267,7 +1268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>12350</v>
@@ -1276,7 +1277,7 @@
         <v>45076</v>
       </c>
       <c r="C7" s="13">
-        <v>742</v>
+        <v>1487</v>
       </c>
       <c r="D7" s="14">
         <v>2022</v>
@@ -1310,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>12351</v>
@@ -1349,7 +1350,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>12352</v>
@@ -1394,7 +1395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>12353</v>
@@ -1439,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>12354</v>
@@ -1484,7 +1485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>12355</v>
@@ -1523,7 +1524,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12356</v>
@@ -1562,7 +1563,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12357</v>
@@ -1607,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>12358</v>
@@ -1646,13 +1647,13 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="10">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>12359</v>
@@ -1691,7 +1692,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>12360</v>
@@ -1733,6 +1734,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1746,9 +1748,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" style="26"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -1759,7 +1761,7 @@
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5">
       <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
@@ -1796,6 +1798,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1810,7 +1813,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -1820,7 +1823,7 @@
     <col min="11" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -1871,9 +1874,10 @@
       <c r="K2" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells>
     <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>